--- a/V2/Summary.xlsx
+++ b/V2/Summary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="292">
   <si>
     <t>Avg_waiting</t>
   </si>
@@ -760,16 +760,16 @@
     <t>25.6</t>
   </si>
   <si>
-    <t>84,837.0</t>
-  </si>
-  <si>
-    <t>276.0</t>
-  </si>
-  <si>
-    <t>2,186,445.0</t>
-  </si>
-  <si>
-    <t>7,122.0</t>
+    <t>86,679.0</t>
+  </si>
+  <si>
+    <t>282.0</t>
+  </si>
+  <si>
+    <t>2,233,563.0</t>
+  </si>
+  <si>
+    <t>7,275.0</t>
   </si>
   <si>
     <t>74.3%</t>
@@ -781,16 +781,16 @@
     <t>22.6</t>
   </si>
   <si>
-    <t>110,261.0</t>
-  </si>
-  <si>
-    <t>278.0</t>
-  </si>
-  <si>
-    <t>2,492,060.0</t>
-  </si>
-  <si>
-    <t>6,293.0</t>
+    <t>112,637.0</t>
+  </si>
+  <si>
+    <t>284.0</t>
+  </si>
+  <si>
+    <t>2,545,742.0</t>
+  </si>
+  <si>
+    <t>6,429.0</t>
   </si>
   <si>
     <t>67.2%</t>
@@ -802,94 +802,97 @@
     <t>21.3</t>
   </si>
   <si>
-    <t>104,221.0</t>
-  </si>
-  <si>
-    <t>327.0</t>
-  </si>
-  <si>
-    <t>2,236,822.0</t>
-  </si>
-  <si>
-    <t>7,012.0</t>
+    <t>106,135.0</t>
+  </si>
+  <si>
+    <t>333.0</t>
+  </si>
+  <si>
+    <t>2,277,676.0</t>
+  </si>
+  <si>
+    <t>7,140.0</t>
   </si>
   <si>
     <t>75.1%</t>
   </si>
   <si>
-    <t>8,326.0</t>
+    <t>8,327.0</t>
   </si>
   <si>
     <t>20.7</t>
   </si>
   <si>
-    <t>125,464.0</t>
-  </si>
-  <si>
-    <t>312.0</t>
-  </si>
-  <si>
-    <t>2,609,022.0</t>
-  </si>
-  <si>
-    <t>6,490.0</t>
-  </si>
-  <si>
-    <t>67.0%</t>
-  </si>
-  <si>
-    <t>7,540.0</t>
+    <t>127,646.0</t>
+  </si>
+  <si>
+    <t>318.0</t>
+  </si>
+  <si>
+    <t>2,655,181.0</t>
+  </si>
+  <si>
+    <t>6,605.0</t>
+  </si>
+  <si>
+    <t>66.9%</t>
+  </si>
+  <si>
+    <t>7,599.0</t>
   </si>
   <si>
     <t>24.4</t>
   </si>
   <si>
-    <t>98,723.0</t>
-  </si>
-  <si>
-    <t>319.0</t>
-  </si>
-  <si>
-    <t>2,411,537.0</t>
-  </si>
-  <si>
-    <t>7,804.0</t>
-  </si>
-  <si>
-    <t>8,781.0</t>
+    <t>101,433.0</t>
+  </si>
+  <si>
+    <t>325.0</t>
+  </si>
+  <si>
+    <t>2,471,991.0</t>
+  </si>
+  <si>
+    <t>7,923.0</t>
+  </si>
+  <si>
+    <t>74.8%</t>
+  </si>
+  <si>
+    <t>8,797.0</t>
   </si>
   <si>
     <t>22.5</t>
   </si>
   <si>
-    <t>121,753.0</t>
-  </si>
-  <si>
-    <t>311.0</t>
-  </si>
-  <si>
-    <t>2,732,979.0</t>
-  </si>
-  <si>
-    <t>6,990.0</t>
-  </si>
-  <si>
-    <t>68.4%</t>
+    <t>123,732.0</t>
+  </si>
+  <si>
+    <t>316.0</t>
+  </si>
+  <si>
+    <t>2,785,721.0</t>
+  </si>
+  <si>
+    <t>7,125.0</t>
+  </si>
+  <si>
+    <t>68.3%</t>
   </si>
   <si>
     <t>8,249.0</t>
   </si>
   <si>
-    <t>112,012.0</t>
-  </si>
-  <si>
-    <t>281.0</t>
-  </si>
-  <si>
-    <t>2,324,798.0</t>
-  </si>
-  <si>
-    <t>5,827.0</t>
+    <t>114,406.0</t>
+  </si>
+  <si>
+    <t>287.0</t>
+  </si>
+  <si>
+    <t>2,374,292.0</t>
+  </si>
+  <si>
+    <t>5,951.0</t>
   </si>
   <si>
     <t>64.2%</t>
@@ -1278,13 +1281,13 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C2">
         <v>7</v>
       </c>
       <c r="D2">
-        <v>2142</v>
+        <v>2184</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -1295,13 +1298,13 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C3">
         <v>32.3</v>
       </c>
       <c r="D3">
-        <v>8133.1</v>
+        <v>8326.9</v>
       </c>
       <c r="E3">
         <v>7</v>
@@ -1312,13 +1315,13 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C4">
         <v>17.7</v>
       </c>
       <c r="D4">
-        <v>5081.9</v>
+        <v>5188.2</v>
       </c>
       <c r="E4">
         <v>17</v>
@@ -1329,13 +1332,13 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5">
-        <v>6050</v>
+        <v>6170</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1346,13 +1349,13 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C6">
         <v>15.7</v>
       </c>
       <c r="D6">
-        <v>4453.4</v>
+        <v>4547.4</v>
       </c>
       <c r="E6">
         <v>83</v>
@@ -1363,13 +1366,13 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C7">
         <v>12</v>
       </c>
       <c r="D7">
-        <v>3558</v>
+        <v>3630</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -1380,13 +1383,13 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C8">
         <v>11.5</v>
       </c>
       <c r="D8">
-        <v>3017.8</v>
+        <v>3086.6</v>
       </c>
       <c r="E8">
         <v>34</v>
@@ -1397,13 +1400,13 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C9">
         <v>19.5</v>
       </c>
       <c r="D9">
-        <v>5578.7</v>
+        <v>5695.9</v>
       </c>
       <c r="E9">
         <v>78</v>
@@ -1414,13 +1417,13 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C10">
         <v>13</v>
       </c>
       <c r="D10">
-        <v>3849.3</v>
+        <v>3927.3</v>
       </c>
       <c r="E10">
         <v>14</v>
@@ -1431,13 +1434,13 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C11">
         <v>15.3</v>
       </c>
       <c r="D11">
-        <v>3069.1</v>
+        <v>3161</v>
       </c>
       <c r="E11">
         <v>40</v>
@@ -1448,13 +1451,13 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C12">
         <v>22.9</v>
       </c>
       <c r="D12">
-        <v>6905.6</v>
+        <v>7043</v>
       </c>
       <c r="E12">
         <v>262</v>
@@ -1465,13 +1468,13 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C13">
         <v>20</v>
       </c>
       <c r="D13">
-        <v>4943.2</v>
+        <v>5063.2</v>
       </c>
       <c r="E13">
         <v>19</v>
@@ -1482,13 +1485,13 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C14">
         <v>21.3</v>
       </c>
       <c r="D14">
-        <v>5902.5</v>
+        <v>6030.3</v>
       </c>
       <c r="E14">
         <v>526</v>
@@ -1499,13 +1502,13 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C15">
         <v>30.1</v>
       </c>
       <c r="D15">
-        <v>8694.4</v>
+        <v>8875.200000000001</v>
       </c>
       <c r="E15">
         <v>94</v>
@@ -1552,13 +1555,13 @@
         <v>24</v>
       </c>
       <c r="C2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D2">
         <v>7</v>
       </c>
       <c r="E2">
-        <v>2121</v>
+        <v>2163</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1570,13 +1573,13 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D3">
         <v>7</v>
       </c>
       <c r="E3">
-        <v>2163</v>
+        <v>2205</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1590,13 +1593,13 @@
         <v>26</v>
       </c>
       <c r="C4">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="D4">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>7194</v>
+        <v>7326</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1608,13 +1611,13 @@
         <v>27</v>
       </c>
       <c r="C5">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D5">
         <v>40</v>
       </c>
       <c r="E5">
-        <v>11373.33333333333</v>
+        <v>11613.33333333333</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -1626,13 +1629,13 @@
         <v>28</v>
       </c>
       <c r="C6">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="D6">
         <v>22</v>
       </c>
       <c r="E6">
-        <v>7458</v>
+        <v>7590</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1644,13 +1647,13 @@
         <v>29</v>
       </c>
       <c r="C7">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D7">
         <v>31</v>
       </c>
       <c r="E7">
-        <v>4080</v>
+        <v>4266</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -1664,13 +1667,13 @@
         <v>30</v>
       </c>
       <c r="C8">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D8">
         <v>17</v>
       </c>
       <c r="E8">
-        <v>4972.5</v>
+        <v>5074.5</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -1682,13 +1685,13 @@
         <v>31</v>
       </c>
       <c r="C9">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D9">
         <v>40</v>
       </c>
       <c r="E9">
-        <v>8760</v>
+        <v>9000</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1700,13 +1703,13 @@
         <v>32</v>
       </c>
       <c r="C10">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D10">
         <v>18</v>
       </c>
       <c r="E10">
-        <v>5508</v>
+        <v>5616</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1718,13 +1721,13 @@
         <v>33</v>
       </c>
       <c r="C11">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D11">
         <v>13</v>
       </c>
       <c r="E11">
-        <v>3666</v>
+        <v>3744</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1736,13 +1739,13 @@
         <v>34</v>
       </c>
       <c r="C12">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="D12">
         <v>14</v>
       </c>
       <c r="E12">
-        <v>5124</v>
+        <v>5208</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1754,13 +1757,13 @@
         <v>35</v>
       </c>
       <c r="C13">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D13">
         <v>17</v>
       </c>
       <c r="E13">
-        <v>4131</v>
+        <v>4233</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1772,13 +1775,13 @@
         <v>36</v>
       </c>
       <c r="C14">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="D14">
         <v>17</v>
       </c>
       <c r="E14">
-        <v>5559</v>
+        <v>5661</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1790,13 +1793,13 @@
         <v>37</v>
       </c>
       <c r="C15">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="D15">
         <v>14</v>
       </c>
       <c r="E15">
-        <v>4872</v>
+        <v>4956</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1808,13 +1811,13 @@
         <v>38</v>
       </c>
       <c r="C16">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D16">
         <v>16</v>
       </c>
       <c r="E16">
-        <v>2608</v>
+        <v>2704</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1826,13 +1829,13 @@
         <v>39</v>
       </c>
       <c r="C17">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D17">
         <v>17</v>
       </c>
       <c r="E17">
-        <v>5321</v>
+        <v>5423</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1844,13 +1847,13 @@
         <v>40</v>
       </c>
       <c r="C18">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D18">
         <v>15</v>
       </c>
       <c r="E18">
-        <v>4672.5</v>
+        <v>4762.5</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -1862,13 +1865,13 @@
         <v>41</v>
       </c>
       <c r="C19">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D19">
         <v>20</v>
       </c>
       <c r="E19">
-        <v>6220</v>
+        <v>6340</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1880,13 +1883,13 @@
         <v>42</v>
       </c>
       <c r="C20">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D20">
         <v>17</v>
       </c>
       <c r="E20">
-        <v>5389</v>
+        <v>5491</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1900,13 +1903,13 @@
         <v>43</v>
       </c>
       <c r="C21">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="D21">
         <v>20</v>
       </c>
       <c r="E21">
-        <v>5620</v>
+        <v>5740</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1918,13 +1921,13 @@
         <v>44</v>
       </c>
       <c r="C22">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D22">
         <v>20</v>
       </c>
       <c r="E22">
-        <v>6480</v>
+        <v>6600</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1938,13 +1941,13 @@
         <v>45</v>
       </c>
       <c r="C23">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="D23">
         <v>12</v>
       </c>
       <c r="E23">
-        <v>3648</v>
+        <v>3720</v>
       </c>
       <c r="F23">
         <v>3</v>
@@ -1956,13 +1959,13 @@
         <v>46</v>
       </c>
       <c r="C24">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D24">
         <v>10</v>
       </c>
       <c r="E24">
-        <v>3170</v>
+        <v>3230</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1974,13 +1977,13 @@
         <v>47</v>
       </c>
       <c r="C25">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D25">
         <v>23</v>
       </c>
       <c r="E25">
-        <v>5826.666666666667</v>
+        <v>5964.666666666667</v>
       </c>
       <c r="F25">
         <v>3</v>
@@ -1992,13 +1995,13 @@
         <v>48</v>
       </c>
       <c r="C26">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="D26">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>6005.714285714285</v>
+        <v>6125.714285714285</v>
       </c>
       <c r="F26">
         <v>7</v>
@@ -2010,13 +2013,13 @@
         <v>43</v>
       </c>
       <c r="C27">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D27">
         <v>25</v>
       </c>
       <c r="E27">
-        <v>7147.5</v>
+        <v>7297.5</v>
       </c>
       <c r="F27">
         <v>16</v>
@@ -2028,13 +2031,13 @@
         <v>49</v>
       </c>
       <c r="C28">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="D28">
         <v>14</v>
       </c>
       <c r="E28">
-        <v>4970</v>
+        <v>5054</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -2046,13 +2049,13 @@
         <v>50</v>
       </c>
       <c r="C29">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D29">
         <v>17</v>
       </c>
       <c r="E29">
-        <v>1938</v>
+        <v>2040</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -2064,13 +2067,13 @@
         <v>51</v>
       </c>
       <c r="C30">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D30">
         <v>13</v>
       </c>
       <c r="E30">
-        <v>3755.142857142857</v>
+        <v>3833.142857142857</v>
       </c>
       <c r="F30">
         <v>7</v>
@@ -2082,13 +2085,13 @@
         <v>52</v>
       </c>
       <c r="C31">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D31">
         <v>14</v>
       </c>
       <c r="E31">
-        <v>4172</v>
+        <v>4256</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -2100,13 +2103,13 @@
         <v>53</v>
       </c>
       <c r="C32">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D32">
         <v>13</v>
       </c>
       <c r="E32">
-        <v>3848</v>
+        <v>3926</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -2118,13 +2121,13 @@
         <v>54</v>
       </c>
       <c r="C33">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D33">
         <v>7</v>
       </c>
       <c r="E33">
-        <v>2030</v>
+        <v>2072</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -2136,13 +2139,13 @@
         <v>55</v>
       </c>
       <c r="C34">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="D34">
         <v>11</v>
       </c>
       <c r="E34">
-        <v>3718</v>
+        <v>3784</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -2154,13 +2157,13 @@
         <v>56</v>
       </c>
       <c r="C35">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="D35">
         <v>13</v>
       </c>
       <c r="E35">
-        <v>4225</v>
+        <v>4303</v>
       </c>
       <c r="F35">
         <v>2</v>
@@ -2172,13 +2175,13 @@
         <v>57</v>
       </c>
       <c r="C36">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D36">
         <v>11</v>
       </c>
       <c r="E36">
-        <v>3241.333333333333</v>
+        <v>3307.333333333333</v>
       </c>
       <c r="F36">
         <v>3</v>
@@ -2190,13 +2193,13 @@
         <v>58</v>
       </c>
       <c r="C37">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D37">
         <v>12</v>
       </c>
       <c r="E37">
-        <v>3317.294117647059</v>
+        <v>3389.294117647059</v>
       </c>
       <c r="F37">
         <v>34</v>
@@ -2210,13 +2213,13 @@
         <v>59</v>
       </c>
       <c r="C38">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D38">
         <v>12</v>
       </c>
       <c r="E38">
-        <v>4320</v>
+        <v>4392</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -2228,13 +2231,13 @@
         <v>60</v>
       </c>
       <c r="C39">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D39">
         <v>12</v>
       </c>
       <c r="E39">
-        <v>2796</v>
+        <v>2868</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -2248,13 +2251,13 @@
         <v>61</v>
       </c>
       <c r="C40">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="D40">
         <v>40</v>
       </c>
       <c r="E40">
-        <v>12760</v>
+        <v>13000</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -2266,13 +2269,13 @@
         <v>62</v>
       </c>
       <c r="C41">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="D41">
         <v>9</v>
       </c>
       <c r="E41">
-        <v>2718</v>
+        <v>2772</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -2284,13 +2287,13 @@
         <v>43</v>
       </c>
       <c r="C42">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D42">
         <v>20</v>
       </c>
       <c r="E42">
-        <v>4280</v>
+        <v>4400</v>
       </c>
       <c r="F42">
         <v>2</v>
@@ -2302,13 +2305,13 @@
         <v>63</v>
       </c>
       <c r="C43">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D43">
         <v>9</v>
       </c>
       <c r="E43">
-        <v>1926</v>
+        <v>1980</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -2320,13 +2323,13 @@
         <v>64</v>
       </c>
       <c r="C44">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D44">
         <v>10</v>
       </c>
       <c r="E44">
-        <v>2940</v>
+        <v>3000</v>
       </c>
       <c r="F44">
         <v>5</v>
@@ -2338,13 +2341,13 @@
         <v>37</v>
       </c>
       <c r="C45">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D45">
         <v>9.800000000000001</v>
       </c>
       <c r="E45">
-        <v>2431.277777777778</v>
+        <v>2490.277777777778</v>
       </c>
       <c r="F45">
         <v>18</v>
@@ -2356,13 +2359,13 @@
         <v>65</v>
       </c>
       <c r="C46">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D46">
         <v>14</v>
       </c>
       <c r="E46">
-        <v>1722</v>
+        <v>1806</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -2374,13 +2377,13 @@
         <v>40</v>
       </c>
       <c r="C47">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="D47">
         <v>10</v>
       </c>
       <c r="E47">
-        <v>3040</v>
+        <v>3100</v>
       </c>
       <c r="F47">
         <v>2</v>
@@ -2392,13 +2395,13 @@
         <v>66</v>
       </c>
       <c r="C48">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="D48">
         <v>13</v>
       </c>
       <c r="E48">
-        <v>4329</v>
+        <v>4407</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -2410,13 +2413,13 @@
         <v>67</v>
       </c>
       <c r="C49">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D49">
         <v>9</v>
       </c>
       <c r="E49">
-        <v>3024</v>
+        <v>3078</v>
       </c>
       <c r="F49">
         <v>2</v>
@@ -2430,13 +2433,13 @@
         <v>68</v>
       </c>
       <c r="C50">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="D50">
         <v>19</v>
       </c>
       <c r="E50">
-        <v>5650.6</v>
+        <v>5764.6</v>
       </c>
       <c r="F50">
         <v>5</v>
@@ -2448,13 +2451,13 @@
         <v>69</v>
       </c>
       <c r="C51">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D51">
         <v>19</v>
       </c>
       <c r="E51">
-        <v>2565</v>
+        <v>2679</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -2466,13 +2469,13 @@
         <v>70</v>
       </c>
       <c r="C52">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="D52">
         <v>40</v>
       </c>
       <c r="E52">
-        <v>13360</v>
+        <v>13600</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -2484,13 +2487,13 @@
         <v>71</v>
       </c>
       <c r="C53">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="D53">
         <v>19</v>
       </c>
       <c r="E53">
-        <v>5187</v>
+        <v>5301</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -2502,13 +2505,13 @@
         <v>72</v>
       </c>
       <c r="C54">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D54">
         <v>19</v>
       </c>
       <c r="E54">
-        <v>4598</v>
+        <v>4712</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -2520,13 +2523,13 @@
         <v>73</v>
       </c>
       <c r="C55">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D55">
         <v>19</v>
       </c>
       <c r="E55">
-        <v>4601.166666666667</v>
+        <v>4715.166666666667</v>
       </c>
       <c r="F55">
         <v>6</v>
@@ -2538,13 +2541,13 @@
         <v>74</v>
       </c>
       <c r="C56">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="D56">
         <v>19</v>
       </c>
       <c r="E56">
-        <v>6479</v>
+        <v>6593</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -2556,13 +2559,13 @@
         <v>75</v>
       </c>
       <c r="C57">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="D57">
         <v>19</v>
       </c>
       <c r="E57">
-        <v>5465.666666666667</v>
+        <v>5579.666666666667</v>
       </c>
       <c r="F57">
         <v>3</v>
@@ -2574,13 +2577,13 @@
         <v>76</v>
       </c>
       <c r="C58">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="D58">
         <v>19</v>
       </c>
       <c r="E58">
-        <v>6300.4</v>
+        <v>6414.4</v>
       </c>
       <c r="F58">
         <v>5</v>
@@ -2592,13 +2595,13 @@
         <v>77</v>
       </c>
       <c r="C59">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D59">
         <v>19</v>
       </c>
       <c r="E59">
-        <v>5840.6</v>
+        <v>5954.6</v>
       </c>
       <c r="F59">
         <v>5</v>
@@ -2610,13 +2613,13 @@
         <v>78</v>
       </c>
       <c r="C60">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D60">
         <v>19</v>
       </c>
       <c r="E60">
-        <v>2964</v>
+        <v>3078</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -2628,13 +2631,13 @@
         <v>79</v>
       </c>
       <c r="C61">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D61">
         <v>19</v>
       </c>
       <c r="E61">
-        <v>4845</v>
+        <v>4959</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -2646,13 +2649,13 @@
         <v>80</v>
       </c>
       <c r="C62">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D62">
         <v>19</v>
       </c>
       <c r="E62">
-        <v>5437.166666666667</v>
+        <v>5551.166666666667</v>
       </c>
       <c r="F62">
         <v>6</v>
@@ -2664,13 +2667,13 @@
         <v>81</v>
       </c>
       <c r="C63">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="D63">
         <v>19</v>
       </c>
       <c r="E63">
-        <v>5472</v>
+        <v>5586</v>
       </c>
       <c r="F63">
         <v>2</v>
@@ -2682,13 +2685,13 @@
         <v>82</v>
       </c>
       <c r="C64">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="D64">
         <v>19</v>
       </c>
       <c r="E64">
-        <v>6555</v>
+        <v>6669</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -2700,13 +2703,13 @@
         <v>83</v>
       </c>
       <c r="C65">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="D65">
         <v>19</v>
       </c>
       <c r="E65">
-        <v>5776</v>
+        <v>5890</v>
       </c>
       <c r="F65">
         <v>2</v>
@@ -2718,13 +2721,13 @@
         <v>84</v>
       </c>
       <c r="C66">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D66">
         <v>19</v>
       </c>
       <c r="E66">
-        <v>6070.5</v>
+        <v>6184.5</v>
       </c>
       <c r="F66">
         <v>4</v>
@@ -2736,13 +2739,13 @@
         <v>85</v>
       </c>
       <c r="C67">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="D67">
         <v>19</v>
       </c>
       <c r="E67">
-        <v>6574</v>
+        <v>6688</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -2754,13 +2757,13 @@
         <v>86</v>
       </c>
       <c r="C68">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D68">
         <v>19</v>
       </c>
       <c r="E68">
-        <v>3790.5</v>
+        <v>3904.5</v>
       </c>
       <c r="F68">
         <v>4</v>
@@ -2772,13 +2775,13 @@
         <v>87</v>
       </c>
       <c r="C69">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D69">
         <v>19</v>
       </c>
       <c r="E69">
-        <v>5257.3</v>
+        <v>5371.3</v>
       </c>
       <c r="F69">
         <v>10</v>
@@ -2790,13 +2793,13 @@
         <v>88</v>
       </c>
       <c r="C70">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D70">
         <v>19</v>
       </c>
       <c r="E70">
-        <v>5890</v>
+        <v>6004</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -2808,13 +2811,13 @@
         <v>89</v>
       </c>
       <c r="C71">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="D71">
         <v>19</v>
       </c>
       <c r="E71">
-        <v>6612</v>
+        <v>6726</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -2826,13 +2829,13 @@
         <v>90</v>
       </c>
       <c r="C72">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D72">
         <v>19</v>
       </c>
       <c r="E72">
-        <v>5882.875</v>
+        <v>5996.875</v>
       </c>
       <c r="F72">
         <v>8</v>
@@ -2844,13 +2847,13 @@
         <v>91</v>
       </c>
       <c r="C73">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D73">
         <v>19</v>
       </c>
       <c r="E73">
-        <v>2869</v>
+        <v>2983</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -2862,13 +2865,13 @@
         <v>92</v>
       </c>
       <c r="C74">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D74">
         <v>40</v>
       </c>
       <c r="E74">
-        <v>12120</v>
+        <v>12360</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -2880,13 +2883,13 @@
         <v>93</v>
       </c>
       <c r="C75">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D75">
         <v>19</v>
       </c>
       <c r="E75">
-        <v>5491</v>
+        <v>5605</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -2898,13 +2901,13 @@
         <v>94</v>
       </c>
       <c r="C76">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D76">
         <v>19</v>
       </c>
       <c r="E76">
-        <v>5757</v>
+        <v>5871</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -2916,13 +2919,13 @@
         <v>95</v>
       </c>
       <c r="C77">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D77">
         <v>19</v>
       </c>
       <c r="E77">
-        <v>6773.5</v>
+        <v>6887.5</v>
       </c>
       <c r="F77">
         <v>2</v>
@@ -2934,13 +2937,13 @@
         <v>96</v>
       </c>
       <c r="C78">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D78">
         <v>19</v>
       </c>
       <c r="E78">
-        <v>2565</v>
+        <v>2679</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -2954,13 +2957,13 @@
         <v>67</v>
       </c>
       <c r="C79">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D79">
         <v>13</v>
       </c>
       <c r="E79">
-        <v>3849.285714285714</v>
+        <v>3927.285714285714</v>
       </c>
       <c r="F79">
         <v>14</v>
@@ -2974,13 +2977,13 @@
         <v>97</v>
       </c>
       <c r="C80">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D80">
         <v>15</v>
       </c>
       <c r="E80">
-        <v>2592.1875</v>
+        <v>2682.1875</v>
       </c>
       <c r="F80">
         <v>16</v>
@@ -2992,13 +2995,13 @@
         <v>98</v>
       </c>
       <c r="C81">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D81">
         <v>17</v>
       </c>
       <c r="E81">
-        <v>2567</v>
+        <v>2669</v>
       </c>
       <c r="F81">
         <v>2</v>
@@ -3010,13 +3013,13 @@
         <v>99</v>
       </c>
       <c r="C82">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="D82">
         <v>16</v>
       </c>
       <c r="E82">
-        <v>5056</v>
+        <v>5152</v>
       </c>
       <c r="F82">
         <v>2</v>
@@ -3028,13 +3031,13 @@
         <v>100</v>
       </c>
       <c r="C83">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D83">
         <v>16</v>
       </c>
       <c r="E83">
-        <v>5744</v>
+        <v>5840</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -3046,13 +3049,13 @@
         <v>101</v>
       </c>
       <c r="C84">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D84">
         <v>16</v>
       </c>
       <c r="E84">
-        <v>3154.666666666667</v>
+        <v>3250.666666666667</v>
       </c>
       <c r="F84">
         <v>6</v>
@@ -3064,13 +3067,13 @@
         <v>102</v>
       </c>
       <c r="C85">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D85">
         <v>15</v>
       </c>
       <c r="E85">
-        <v>3182.307692307692</v>
+        <v>3272.307692307692</v>
       </c>
       <c r="F85">
         <v>13</v>
@@ -3084,13 +3087,13 @@
         <v>103</v>
       </c>
       <c r="C86">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="D86">
         <v>20</v>
       </c>
       <c r="E86">
-        <v>5940</v>
+        <v>6060</v>
       </c>
       <c r="F86">
         <v>2</v>
@@ -3102,13 +3105,13 @@
         <v>104</v>
       </c>
       <c r="C87">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D87">
         <v>22</v>
       </c>
       <c r="E87">
-        <v>6666</v>
+        <v>6798</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -3120,13 +3123,13 @@
         <v>105</v>
       </c>
       <c r="C88">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="D88">
         <v>23</v>
       </c>
       <c r="E88">
-        <v>7636</v>
+        <v>7774</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -3138,13 +3141,13 @@
         <v>106</v>
       </c>
       <c r="C89">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="D89">
         <v>25</v>
       </c>
       <c r="E89">
-        <v>8137.5</v>
+        <v>8287.5</v>
       </c>
       <c r="F89">
         <v>2</v>
@@ -3156,13 +3159,13 @@
         <v>107</v>
       </c>
       <c r="C90">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D90">
         <v>20</v>
       </c>
       <c r="E90">
-        <v>7200</v>
+        <v>7320</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -3174,13 +3177,13 @@
         <v>108</v>
       </c>
       <c r="C91">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="D91">
         <v>23</v>
       </c>
       <c r="E91">
-        <v>7398.333333333333</v>
+        <v>7536.333333333333</v>
       </c>
       <c r="F91">
         <v>3</v>
@@ -3192,13 +3195,13 @@
         <v>109</v>
       </c>
       <c r="C92">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="D92">
         <v>22</v>
       </c>
       <c r="E92">
-        <v>7150</v>
+        <v>7282</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -3210,13 +3213,13 @@
         <v>110</v>
       </c>
       <c r="C93">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D93">
         <v>20</v>
       </c>
       <c r="E93">
-        <v>4970</v>
+        <v>5090</v>
       </c>
       <c r="F93">
         <v>2</v>
@@ -3228,13 +3231,13 @@
         <v>111</v>
       </c>
       <c r="C94">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D94">
         <v>23</v>
       </c>
       <c r="E94">
-        <v>7084</v>
+        <v>7222</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -3246,13 +3249,13 @@
         <v>48</v>
       </c>
       <c r="C95">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D95">
         <v>23</v>
       </c>
       <c r="E95">
-        <v>7015</v>
+        <v>7153</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -3264,13 +3267,13 @@
         <v>112</v>
       </c>
       <c r="C96">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D96">
         <v>28</v>
       </c>
       <c r="E96">
-        <v>8594</v>
+        <v>8762</v>
       </c>
       <c r="F96">
         <v>28</v>
@@ -3282,13 +3285,13 @@
         <v>43</v>
       </c>
       <c r="C97">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="D97">
         <v>23</v>
       </c>
       <c r="E97">
-        <v>7935</v>
+        <v>8073</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -3300,13 +3303,13 @@
         <v>113</v>
       </c>
       <c r="C98">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="D98">
         <v>23</v>
       </c>
       <c r="E98">
-        <v>7475</v>
+        <v>7613</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -3318,13 +3321,13 @@
         <v>114</v>
       </c>
       <c r="C99">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="D99">
         <v>22.2</v>
       </c>
       <c r="E99">
-        <v>7230.933333333333</v>
+        <v>7364.019047619047</v>
       </c>
       <c r="F99">
         <v>105</v>
@@ -3336,13 +3339,13 @@
         <v>115</v>
       </c>
       <c r="C100">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="D100">
         <v>23</v>
       </c>
       <c r="E100">
-        <v>7958</v>
+        <v>8096</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -3354,13 +3357,13 @@
         <v>116</v>
       </c>
       <c r="C101">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D101">
         <v>24</v>
       </c>
       <c r="E101">
-        <v>6702</v>
+        <v>6846</v>
       </c>
       <c r="F101">
         <v>4</v>
@@ -3372,13 +3375,13 @@
         <v>117</v>
       </c>
       <c r="C102">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D102">
         <v>23</v>
       </c>
       <c r="E102">
-        <v>6510.916666666667</v>
+        <v>6648.916666666667</v>
       </c>
       <c r="F102">
         <v>12</v>
@@ -3390,13 +3393,13 @@
         <v>118</v>
       </c>
       <c r="C103">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="D103">
         <v>23</v>
       </c>
       <c r="E103">
-        <v>7981</v>
+        <v>8119</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -3408,13 +3411,13 @@
         <v>119</v>
       </c>
       <c r="C104">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="D104">
         <v>23.7</v>
       </c>
       <c r="E104">
-        <v>7668</v>
+        <v>7810</v>
       </c>
       <c r="F104">
         <v>9</v>
@@ -3426,13 +3429,13 @@
         <v>120</v>
       </c>
       <c r="C105">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D105">
         <v>22</v>
       </c>
       <c r="E105">
-        <v>5805.555555555556</v>
+        <v>5937.555555555556</v>
       </c>
       <c r="F105">
         <v>81</v>
@@ -3444,13 +3447,13 @@
         <v>53</v>
       </c>
       <c r="C106">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D106">
         <v>17</v>
       </c>
       <c r="E106">
-        <v>5185</v>
+        <v>5287</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -3462,13 +3465,13 @@
         <v>121</v>
       </c>
       <c r="C107">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D107">
         <v>27</v>
       </c>
       <c r="E107">
-        <v>9058.5</v>
+        <v>9220.5</v>
       </c>
       <c r="F107">
         <v>2</v>
@@ -3480,13 +3483,13 @@
         <v>122</v>
       </c>
       <c r="C108">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="D108">
         <v>23</v>
       </c>
       <c r="E108">
-        <v>7498</v>
+        <v>7636</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -3500,13 +3503,13 @@
         <v>123</v>
       </c>
       <c r="C109">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D109">
         <v>20</v>
       </c>
       <c r="E109">
-        <v>5228</v>
+        <v>5348</v>
       </c>
       <c r="F109">
         <v>5</v>
@@ -3518,13 +3521,13 @@
         <v>124</v>
       </c>
       <c r="C110">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D110">
         <v>20</v>
       </c>
       <c r="E110">
-        <v>2060</v>
+        <v>2180</v>
       </c>
       <c r="F110">
         <v>1</v>
@@ -3536,13 +3539,13 @@
         <v>125</v>
       </c>
       <c r="C111">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D111">
         <v>20</v>
       </c>
       <c r="E111">
-        <v>5155.555555555556</v>
+        <v>5275.555555555556</v>
       </c>
       <c r="F111">
         <v>9</v>
@@ -3554,13 +3557,13 @@
         <v>126</v>
       </c>
       <c r="C112">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D112">
         <v>20</v>
       </c>
       <c r="E112">
-        <v>4986.666666666667</v>
+        <v>5106.666666666667</v>
       </c>
       <c r="F112">
         <v>3</v>
@@ -3572,13 +3575,13 @@
         <v>127</v>
       </c>
       <c r="C113">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D113">
         <v>20</v>
       </c>
       <c r="E113">
-        <v>4360</v>
+        <v>4480</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -3592,13 +3595,13 @@
         <v>128</v>
       </c>
       <c r="C114">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="D114">
         <v>24</v>
       </c>
       <c r="E114">
-        <v>8112</v>
+        <v>8256</v>
       </c>
       <c r="F114">
         <v>3</v>
@@ -3610,13 +3613,13 @@
         <v>129</v>
       </c>
       <c r="C115">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="D115">
         <v>23</v>
       </c>
       <c r="E115">
-        <v>6915.333333333333</v>
+        <v>7053.333333333333</v>
       </c>
       <c r="F115">
         <v>3</v>
@@ -3628,13 +3631,13 @@
         <v>130</v>
       </c>
       <c r="C116">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="D116">
         <v>31.7</v>
       </c>
       <c r="E116">
-        <v>9497.666666666666</v>
+        <v>9687.666666666666</v>
       </c>
       <c r="F116">
         <v>3</v>
@@ -3646,13 +3649,13 @@
         <v>131</v>
       </c>
       <c r="C117">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D117">
         <v>19.1</v>
       </c>
       <c r="E117">
-        <v>5289.411764705882</v>
+        <v>5404.294117647059</v>
       </c>
       <c r="F117">
         <v>34</v>
@@ -3664,13 +3667,13 @@
         <v>59</v>
       </c>
       <c r="C118">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D118">
         <v>20</v>
       </c>
       <c r="E118">
-        <v>6100</v>
+        <v>6220</v>
       </c>
       <c r="F118">
         <v>1</v>
@@ -3682,13 +3685,13 @@
         <v>132</v>
       </c>
       <c r="C119">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D119">
         <v>31</v>
       </c>
       <c r="E119">
-        <v>9238</v>
+        <v>9424</v>
       </c>
       <c r="F119">
         <v>1</v>
@@ -3700,13 +3703,13 @@
         <v>133</v>
       </c>
       <c r="C120">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D120">
         <v>17</v>
       </c>
       <c r="E120">
-        <v>4012</v>
+        <v>4114</v>
       </c>
       <c r="F120">
         <v>1</v>
@@ -3718,13 +3721,13 @@
         <v>134</v>
       </c>
       <c r="C121">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D121">
         <v>30</v>
       </c>
       <c r="E121">
-        <v>8550</v>
+        <v>8730</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -3736,13 +3739,13 @@
         <v>135</v>
       </c>
       <c r="C122">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D122">
         <v>31</v>
       </c>
       <c r="E122">
-        <v>9672</v>
+        <v>9858</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -3754,13 +3757,13 @@
         <v>136</v>
       </c>
       <c r="C123">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D123">
         <v>19</v>
       </c>
       <c r="E123">
-        <v>4560</v>
+        <v>4674</v>
       </c>
       <c r="F123">
         <v>1</v>
@@ -3772,13 +3775,13 @@
         <v>137</v>
       </c>
       <c r="C124">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D124">
         <v>20</v>
       </c>
       <c r="E124">
-        <v>5980</v>
+        <v>6100</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -3790,13 +3793,13 @@
         <v>138</v>
       </c>
       <c r="C125">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="D125">
         <v>25.7</v>
       </c>
       <c r="E125">
-        <v>8319.333333333334</v>
+        <v>8473.333333333334</v>
       </c>
       <c r="F125">
         <v>3</v>
@@ -3808,13 +3811,13 @@
         <v>139</v>
       </c>
       <c r="C126">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D126">
         <v>20</v>
       </c>
       <c r="E126">
-        <v>6230</v>
+        <v>6350</v>
       </c>
       <c r="F126">
         <v>2</v>
@@ -3826,13 +3829,13 @@
         <v>140</v>
       </c>
       <c r="C127">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D127">
         <v>30</v>
       </c>
       <c r="E127">
-        <v>4550</v>
+        <v>4730</v>
       </c>
       <c r="F127">
         <v>2</v>
@@ -3844,13 +3847,13 @@
         <v>141</v>
       </c>
       <c r="C128">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D128">
         <v>17.8</v>
       </c>
       <c r="E128">
-        <v>5231.25</v>
+        <v>5337.75</v>
       </c>
       <c r="F128">
         <v>4</v>
@@ -3862,13 +3865,13 @@
         <v>142</v>
       </c>
       <c r="C129">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D129">
         <v>20</v>
       </c>
       <c r="E129">
-        <v>6360</v>
+        <v>6480</v>
       </c>
       <c r="F129">
         <v>1</v>
@@ -3880,13 +3883,13 @@
         <v>143</v>
       </c>
       <c r="C130">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="D130">
         <v>18</v>
       </c>
       <c r="E130">
-        <v>5805</v>
+        <v>5913</v>
       </c>
       <c r="F130">
         <v>2</v>
@@ -3898,13 +3901,13 @@
         <v>144</v>
       </c>
       <c r="C131">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="D131">
         <v>18</v>
       </c>
       <c r="E131">
-        <v>5976</v>
+        <v>6084</v>
       </c>
       <c r="F131">
         <v>1</v>
@@ -3916,13 +3919,13 @@
         <v>145</v>
       </c>
       <c r="C132">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D132">
         <v>18</v>
       </c>
       <c r="E132">
-        <v>5085</v>
+        <v>5193</v>
       </c>
       <c r="F132">
         <v>2</v>
@@ -3934,13 +3937,13 @@
         <v>146</v>
       </c>
       <c r="C133">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D133">
         <v>18.2</v>
       </c>
       <c r="E133">
-        <v>4959.25</v>
+        <v>5068.75</v>
       </c>
       <c r="F133">
         <v>4</v>
@@ -3952,13 +3955,13 @@
         <v>147</v>
       </c>
       <c r="C134">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D134">
         <v>20</v>
       </c>
       <c r="E134">
-        <v>5660</v>
+        <v>5780</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -3970,13 +3973,13 @@
         <v>148</v>
       </c>
       <c r="C135">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D135">
         <v>18</v>
       </c>
       <c r="E135">
-        <v>4446</v>
+        <v>4554</v>
       </c>
       <c r="F135">
         <v>2</v>
@@ -3988,13 +3991,13 @@
         <v>149</v>
       </c>
       <c r="C136">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D136">
         <v>19</v>
       </c>
       <c r="E136">
-        <v>6840</v>
+        <v>6954</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -4006,13 +4009,13 @@
         <v>150</v>
       </c>
       <c r="C137">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D137">
         <v>18.3</v>
       </c>
       <c r="E137">
-        <v>5082.2</v>
+        <v>5192.2</v>
       </c>
       <c r="F137">
         <v>15</v>
@@ -4024,13 +4027,13 @@
         <v>151</v>
       </c>
       <c r="C138">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="D138">
         <v>16</v>
       </c>
       <c r="E138">
-        <v>5200</v>
+        <v>5296</v>
       </c>
       <c r="F138">
         <v>1</v>
@@ -4042,13 +4045,13 @@
         <v>123</v>
       </c>
       <c r="C139">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="D139">
         <v>19.8</v>
       </c>
       <c r="E139">
-        <v>5462.56</v>
+        <v>5581.12</v>
       </c>
       <c r="F139">
         <v>25</v>
@@ -4060,13 +4063,13 @@
         <v>152</v>
       </c>
       <c r="C140">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="D140">
         <v>18</v>
       </c>
       <c r="E140">
-        <v>5976</v>
+        <v>6084</v>
       </c>
       <c r="F140">
         <v>2</v>
@@ -4078,13 +4081,13 @@
         <v>99</v>
       </c>
       <c r="C141">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D141">
         <v>17</v>
       </c>
       <c r="E141">
-        <v>5251.666666666667</v>
+        <v>5353.666666666667</v>
       </c>
       <c r="F141">
         <v>3</v>
@@ -4096,13 +4099,13 @@
         <v>125</v>
       </c>
       <c r="C142">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D142">
         <v>20</v>
       </c>
       <c r="E142">
-        <v>5920</v>
+        <v>6040</v>
       </c>
       <c r="F142">
         <v>1</v>
@@ -4114,13 +4117,13 @@
         <v>153</v>
       </c>
       <c r="C143">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D143">
         <v>23.5</v>
       </c>
       <c r="E143">
-        <v>6674.298245614035</v>
+        <v>6815.350877192983</v>
       </c>
       <c r="F143">
         <v>57</v>
@@ -4132,13 +4135,13 @@
         <v>154</v>
       </c>
       <c r="C144">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="D144">
         <v>15</v>
       </c>
       <c r="E144">
-        <v>4215</v>
+        <v>4305</v>
       </c>
       <c r="F144">
         <v>1</v>
@@ -4150,13 +4153,13 @@
         <v>155</v>
       </c>
       <c r="C145">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="D145">
         <v>11</v>
       </c>
       <c r="E145">
-        <v>3883</v>
+        <v>3949</v>
       </c>
       <c r="F145">
         <v>1</v>
@@ -4168,13 +4171,13 @@
         <v>156</v>
       </c>
       <c r="C146">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="D146">
         <v>18</v>
       </c>
       <c r="E146">
-        <v>6390</v>
+        <v>6498</v>
       </c>
       <c r="F146">
         <v>1</v>
@@ -4186,13 +4189,13 @@
         <v>157</v>
       </c>
       <c r="C147">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D147">
         <v>40</v>
       </c>
       <c r="E147">
-        <v>12240</v>
+        <v>12480</v>
       </c>
       <c r="F147">
         <v>1</v>
@@ -4204,13 +4207,13 @@
         <v>158</v>
       </c>
       <c r="C148">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D148">
         <v>18.7</v>
       </c>
       <c r="E148">
-        <v>5108</v>
+        <v>5220</v>
       </c>
       <c r="F148">
         <v>3</v>
@@ -4222,13 +4225,13 @@
         <v>159</v>
       </c>
       <c r="C149">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D149">
         <v>18</v>
       </c>
       <c r="E149">
-        <v>4446</v>
+        <v>4554</v>
       </c>
       <c r="F149">
         <v>1</v>
@@ -4240,13 +4243,13 @@
         <v>160</v>
       </c>
       <c r="C150">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D150">
         <v>18</v>
       </c>
       <c r="E150">
-        <v>4140</v>
+        <v>4248</v>
       </c>
       <c r="F150">
         <v>3</v>
@@ -4258,13 +4261,13 @@
         <v>161</v>
       </c>
       <c r="C151">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="D151">
         <v>29.5</v>
       </c>
       <c r="E151">
-        <v>10125</v>
+        <v>10302</v>
       </c>
       <c r="F151">
         <v>2</v>
@@ -4276,13 +4279,13 @@
         <v>162</v>
       </c>
       <c r="C152">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D152">
         <v>18</v>
       </c>
       <c r="E152">
-        <v>4572</v>
+        <v>4680</v>
       </c>
       <c r="F152">
         <v>1</v>
@@ -4294,13 +4297,13 @@
         <v>163</v>
       </c>
       <c r="C153">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D153">
         <v>21</v>
       </c>
       <c r="E153">
-        <v>6279</v>
+        <v>6405</v>
       </c>
       <c r="F153">
         <v>1</v>
@@ -4312,13 +4315,13 @@
         <v>164</v>
       </c>
       <c r="C154">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="D154">
         <v>20</v>
       </c>
       <c r="E154">
-        <v>5940</v>
+        <v>6060</v>
       </c>
       <c r="F154">
         <v>1</v>
@@ -4330,13 +4333,13 @@
         <v>165</v>
       </c>
       <c r="C155">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D155">
         <v>18</v>
       </c>
       <c r="E155">
-        <v>3910.5</v>
+        <v>4018.5</v>
       </c>
       <c r="F155">
         <v>4</v>
@@ -4348,13 +4351,13 @@
         <v>166</v>
       </c>
       <c r="C156">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="D156">
         <v>15</v>
       </c>
       <c r="E156">
-        <v>5190</v>
+        <v>5280</v>
       </c>
       <c r="F156">
         <v>1</v>
@@ -4366,13 +4369,13 @@
         <v>167</v>
       </c>
       <c r="C157">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D157">
         <v>20</v>
       </c>
       <c r="E157">
-        <v>4895</v>
+        <v>5015</v>
       </c>
       <c r="F157">
         <v>4</v>
@@ -4384,13 +4387,13 @@
         <v>168</v>
       </c>
       <c r="C158">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D158">
         <v>40</v>
       </c>
       <c r="E158">
-        <v>11600</v>
+        <v>11840</v>
       </c>
       <c r="F158">
         <v>1</v>
@@ -4402,13 +4405,13 @@
         <v>169</v>
       </c>
       <c r="C159">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D159">
         <v>18</v>
       </c>
       <c r="E159">
-        <v>5490</v>
+        <v>5598</v>
       </c>
       <c r="F159">
         <v>1</v>
@@ -4420,13 +4423,13 @@
         <v>170</v>
       </c>
       <c r="C160">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D160">
         <v>26</v>
       </c>
       <c r="E160">
-        <v>7514</v>
+        <v>7670</v>
       </c>
       <c r="F160">
         <v>1</v>
@@ -4438,13 +4441,13 @@
         <v>171</v>
       </c>
       <c r="C161">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D161">
         <v>20</v>
       </c>
       <c r="E161">
-        <v>2200</v>
+        <v>2320</v>
       </c>
       <c r="F161">
         <v>1</v>
@@ -4456,13 +4459,13 @@
         <v>172</v>
       </c>
       <c r="C162">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D162">
         <v>14</v>
       </c>
       <c r="E162">
-        <v>4452</v>
+        <v>4536</v>
       </c>
       <c r="F162">
         <v>1</v>
@@ -4474,13 +4477,13 @@
         <v>173</v>
       </c>
       <c r="C163">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D163">
         <v>19</v>
       </c>
       <c r="E163">
-        <v>6042</v>
+        <v>6156</v>
       </c>
       <c r="F163">
         <v>1</v>
@@ -4492,13 +4495,13 @@
         <v>174</v>
       </c>
       <c r="C164">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D164">
         <v>20.3</v>
       </c>
       <c r="E164">
-        <v>5263.545454545455</v>
+        <v>5385.181818181818</v>
       </c>
       <c r="F164">
         <v>22</v>
@@ -4510,13 +4513,13 @@
         <v>175</v>
       </c>
       <c r="C165">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="D165">
         <v>19</v>
       </c>
       <c r="E165">
-        <v>6108.5</v>
+        <v>6222.5</v>
       </c>
       <c r="F165">
         <v>2</v>
@@ -4528,13 +4531,13 @@
         <v>176</v>
       </c>
       <c r="C166">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D166">
         <v>25</v>
       </c>
       <c r="E166">
-        <v>7300</v>
+        <v>7450</v>
       </c>
       <c r="F166">
         <v>1</v>
@@ -4546,13 +4549,13 @@
         <v>177</v>
       </c>
       <c r="C167">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D167">
         <v>16</v>
       </c>
       <c r="E167">
-        <v>4736</v>
+        <v>4832</v>
       </c>
       <c r="F167">
         <v>1</v>
@@ -4564,13 +4567,13 @@
         <v>178</v>
       </c>
       <c r="C168">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D168">
         <v>26.6</v>
       </c>
       <c r="E168">
-        <v>6913.086956521739</v>
+        <v>7072.869565217391</v>
       </c>
       <c r="F168">
         <v>46</v>
@@ -4582,13 +4585,13 @@
         <v>179</v>
       </c>
       <c r="C169">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D169">
         <v>18</v>
       </c>
       <c r="E169">
-        <v>6057</v>
+        <v>6165</v>
       </c>
       <c r="F169">
         <v>2</v>
@@ -4600,13 +4603,13 @@
         <v>180</v>
       </c>
       <c r="C170">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D170">
         <v>21.1</v>
       </c>
       <c r="E170">
-        <v>5899.509090909091</v>
+        <v>6026.381818181818</v>
       </c>
       <c r="F170">
         <v>55</v>
@@ -4618,13 +4621,13 @@
         <v>181</v>
       </c>
       <c r="C171">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D171">
         <v>20</v>
       </c>
       <c r="E171">
-        <v>4178.181818181818</v>
+        <v>4298.181818181818</v>
       </c>
       <c r="F171">
         <v>11</v>
@@ -4636,13 +4639,13 @@
         <v>182</v>
       </c>
       <c r="C172">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D172">
         <v>20</v>
       </c>
       <c r="E172">
-        <v>6120</v>
+        <v>6240</v>
       </c>
       <c r="F172">
         <v>1</v>
@@ -4654,13 +4657,13 @@
         <v>183</v>
       </c>
       <c r="C173">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D173">
         <v>20.9</v>
       </c>
       <c r="E173">
-        <v>5996.95652173913</v>
+        <v>6122.173913043478</v>
       </c>
       <c r="F173">
         <v>23</v>
@@ -4672,13 +4675,13 @@
         <v>184</v>
       </c>
       <c r="C174">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D174">
         <v>24</v>
       </c>
       <c r="E174">
-        <v>6768</v>
+        <v>6912</v>
       </c>
       <c r="F174">
         <v>2</v>
@@ -4690,13 +4693,13 @@
         <v>185</v>
       </c>
       <c r="C175">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D175">
         <v>15.3</v>
       </c>
       <c r="E175">
-        <v>3232.6</v>
+        <v>3324.4</v>
       </c>
       <c r="F175">
         <v>10</v>
@@ -4708,13 +4711,13 @@
         <v>186</v>
       </c>
       <c r="C176">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D176">
         <v>18</v>
       </c>
       <c r="E176">
-        <v>3294</v>
+        <v>3402</v>
       </c>
       <c r="F176">
         <v>1</v>
@@ -4726,13 +4729,13 @@
         <v>187</v>
       </c>
       <c r="C177">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="D177">
         <v>40</v>
       </c>
       <c r="E177">
-        <v>12080</v>
+        <v>12320</v>
       </c>
       <c r="F177">
         <v>2</v>
@@ -4744,13 +4747,13 @@
         <v>188</v>
       </c>
       <c r="C178">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D178">
         <v>20.2</v>
       </c>
       <c r="E178">
-        <v>4931.25</v>
+        <v>5052.25</v>
       </c>
       <c r="F178">
         <v>12</v>
@@ -4762,13 +4765,13 @@
         <v>189</v>
       </c>
       <c r="C179">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D179">
         <v>20</v>
       </c>
       <c r="E179">
-        <v>6600</v>
+        <v>6720</v>
       </c>
       <c r="F179">
         <v>1</v>
@@ -4780,13 +4783,13 @@
         <v>190</v>
       </c>
       <c r="C180">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D180">
         <v>17</v>
       </c>
       <c r="E180">
-        <v>2652</v>
+        <v>2754</v>
       </c>
       <c r="F180">
         <v>1</v>
@@ -4798,13 +4801,13 @@
         <v>191</v>
       </c>
       <c r="C181">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D181">
         <v>18</v>
       </c>
       <c r="E181">
-        <v>3978</v>
+        <v>4086</v>
       </c>
       <c r="F181">
         <v>1</v>
@@ -4816,13 +4819,13 @@
         <v>192</v>
       </c>
       <c r="C182">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D182">
         <v>33.1</v>
       </c>
       <c r="E182">
-        <v>10090.57142857143</v>
+        <v>10289.42857142857</v>
       </c>
       <c r="F182">
         <v>7</v>
@@ -4834,13 +4837,13 @@
         <v>193</v>
       </c>
       <c r="C183">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D183">
         <v>24.7</v>
       </c>
       <c r="E183">
-        <v>8102.666666666667</v>
+        <v>8250.666666666666</v>
       </c>
       <c r="F183">
         <v>3</v>
@@ -4852,13 +4855,13 @@
         <v>194</v>
       </c>
       <c r="C184">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D184">
         <v>23.7</v>
       </c>
       <c r="E184">
-        <v>6582.666666666667</v>
+        <v>6724.666666666667</v>
       </c>
       <c r="F184">
         <v>6</v>
@@ -4870,13 +4873,13 @@
         <v>195</v>
       </c>
       <c r="C185">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D185">
         <v>18</v>
       </c>
       <c r="E185">
-        <v>4104</v>
+        <v>4212</v>
       </c>
       <c r="F185">
         <v>1</v>
@@ -4888,13 +4891,13 @@
         <v>196</v>
       </c>
       <c r="C186">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="D186">
         <v>20</v>
       </c>
       <c r="E186">
-        <v>5376</v>
+        <v>5496</v>
       </c>
       <c r="F186">
         <v>10</v>
@@ -4906,13 +4909,13 @@
         <v>197</v>
       </c>
       <c r="C187">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D187">
         <v>20</v>
       </c>
       <c r="E187">
-        <v>5840</v>
+        <v>5960</v>
       </c>
       <c r="F187">
         <v>1</v>
@@ -4924,13 +4927,13 @@
         <v>198</v>
       </c>
       <c r="C188">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D188">
         <v>18.3</v>
       </c>
       <c r="E188">
-        <v>5597.8125</v>
+        <v>5707.5</v>
       </c>
       <c r="F188">
         <v>32</v>
@@ -4942,13 +4945,13 @@
         <v>127</v>
       </c>
       <c r="C189">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D189">
         <v>18</v>
       </c>
       <c r="E189">
-        <v>5721.428571428572</v>
+        <v>5829.428571428572</v>
       </c>
       <c r="F189">
         <v>14</v>
@@ -4960,13 +4963,13 @@
         <v>199</v>
       </c>
       <c r="C190">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D190">
         <v>20</v>
       </c>
       <c r="E190">
-        <v>2320</v>
+        <v>2440</v>
       </c>
       <c r="F190">
         <v>1</v>
@@ -4978,13 +4981,13 @@
         <v>200</v>
       </c>
       <c r="C191">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D191">
         <v>16</v>
       </c>
       <c r="E191">
-        <v>4736</v>
+        <v>4832</v>
       </c>
       <c r="F191">
         <v>1</v>
@@ -4996,13 +4999,13 @@
         <v>201</v>
       </c>
       <c r="C192">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D192">
         <v>19</v>
       </c>
       <c r="E192">
-        <v>5814</v>
+        <v>5928</v>
       </c>
       <c r="F192">
         <v>1</v>
@@ -5014,13 +5017,13 @@
         <v>202</v>
       </c>
       <c r="C193">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D193">
         <v>19.9</v>
       </c>
       <c r="E193">
-        <v>5432.4</v>
+        <v>5551.6</v>
       </c>
       <c r="F193">
         <v>15</v>
@@ -5032,13 +5035,13 @@
         <v>203</v>
       </c>
       <c r="C194">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D194">
         <v>19</v>
       </c>
       <c r="E194">
-        <v>3809.5</v>
+        <v>3923.5</v>
       </c>
       <c r="F194">
         <v>6</v>
@@ -5050,13 +5053,13 @@
         <v>44</v>
       </c>
       <c r="C195">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D195">
         <v>24.3</v>
       </c>
       <c r="E195">
-        <v>6510.857142857143</v>
+        <v>6656.571428571428</v>
       </c>
       <c r="F195">
         <v>7</v>
@@ -5068,13 +5071,13 @@
         <v>204</v>
       </c>
       <c r="C196">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="D196">
         <v>16.8</v>
       </c>
       <c r="E196">
-        <v>5279</v>
+        <v>5379.5</v>
       </c>
       <c r="F196">
         <v>4</v>
@@ -5086,13 +5089,13 @@
         <v>205</v>
       </c>
       <c r="C197">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="D197">
         <v>23</v>
       </c>
       <c r="E197">
-        <v>6431.666666666667</v>
+        <v>6569.666666666667</v>
       </c>
       <c r="F197">
         <v>9</v>
@@ -5104,13 +5107,13 @@
         <v>206</v>
       </c>
       <c r="C198">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="D198">
         <v>20</v>
       </c>
       <c r="E198">
-        <v>6820</v>
+        <v>6940</v>
       </c>
       <c r="F198">
         <v>1</v>
@@ -5122,13 +5125,13 @@
         <v>207</v>
       </c>
       <c r="C199">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D199">
         <v>26</v>
       </c>
       <c r="E199">
-        <v>6604</v>
+        <v>6760</v>
       </c>
       <c r="F199">
         <v>1</v>
@@ -5140,13 +5143,13 @@
         <v>208</v>
       </c>
       <c r="C200">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="D200">
         <v>18</v>
       </c>
       <c r="E200">
-        <v>5850</v>
+        <v>5958</v>
       </c>
       <c r="F200">
         <v>2</v>
@@ -5160,13 +5163,13 @@
         <v>209</v>
       </c>
       <c r="C201">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D201">
         <v>8</v>
       </c>
       <c r="E201">
-        <v>1722</v>
+        <v>1770</v>
       </c>
       <c r="F201">
         <v>8</v>
@@ -5178,13 +5181,13 @@
         <v>210</v>
       </c>
       <c r="C202">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D202">
         <v>20.5</v>
       </c>
       <c r="E202">
-        <v>5576.75</v>
+        <v>5699.75</v>
       </c>
       <c r="F202">
         <v>8</v>
@@ -5196,13 +5199,13 @@
         <v>211</v>
       </c>
       <c r="C203">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="D203">
         <v>40</v>
       </c>
       <c r="E203">
-        <v>13320</v>
+        <v>13560</v>
       </c>
       <c r="F203">
         <v>1</v>
@@ -5214,13 +5217,13 @@
         <v>212</v>
       </c>
       <c r="C204">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="D204">
         <v>40</v>
       </c>
       <c r="E204">
-        <v>12760</v>
+        <v>13000</v>
       </c>
       <c r="F204">
         <v>1</v>
@@ -5232,13 +5235,13 @@
         <v>62</v>
       </c>
       <c r="C205">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="D205">
         <v>35.1</v>
       </c>
       <c r="E205">
-        <v>11361.75</v>
+        <v>11572.5</v>
       </c>
       <c r="F205">
         <v>16</v>
@@ -5250,13 +5253,13 @@
         <v>213</v>
       </c>
       <c r="C206">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="D206">
         <v>40</v>
       </c>
       <c r="E206">
-        <v>13550</v>
+        <v>13790</v>
       </c>
       <c r="F206">
         <v>4</v>
@@ -5268,13 +5271,13 @@
         <v>76</v>
       </c>
       <c r="C207">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D207">
         <v>40</v>
       </c>
       <c r="E207">
-        <v>10200</v>
+        <v>10440</v>
       </c>
       <c r="F207">
         <v>4</v>
@@ -5286,13 +5289,13 @@
         <v>214</v>
       </c>
       <c r="C208">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="D208">
         <v>33</v>
       </c>
       <c r="E208">
-        <v>11187</v>
+        <v>11385</v>
       </c>
       <c r="F208">
         <v>1</v>
@@ -5304,13 +5307,13 @@
         <v>215</v>
       </c>
       <c r="C209">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D209">
         <v>40</v>
       </c>
       <c r="E209">
-        <v>10480</v>
+        <v>10720</v>
       </c>
       <c r="F209">
         <v>3</v>
@@ -5322,13 +5325,13 @@
         <v>216</v>
       </c>
       <c r="C210">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="D210">
         <v>32.3</v>
       </c>
       <c r="E210">
-        <v>9404.714285714286</v>
+        <v>9598.714285714286</v>
       </c>
       <c r="F210">
         <v>21</v>
@@ -5340,13 +5343,13 @@
         <v>217</v>
       </c>
       <c r="C211">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D211">
         <v>18</v>
       </c>
       <c r="E211">
-        <v>5580</v>
+        <v>5688</v>
       </c>
       <c r="F211">
         <v>1</v>
@@ -5358,13 +5361,13 @@
         <v>218</v>
       </c>
       <c r="C212">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D212">
         <v>43.3</v>
       </c>
       <c r="E212">
-        <v>8233.333333333334</v>
+        <v>8493.333333333334</v>
       </c>
       <c r="F212">
         <v>3</v>
@@ -5376,13 +5379,13 @@
         <v>219</v>
       </c>
       <c r="C213">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="D213">
         <v>29</v>
       </c>
       <c r="E213">
-        <v>8816</v>
+        <v>8990</v>
       </c>
       <c r="F213">
         <v>2</v>
@@ -5394,13 +5397,13 @@
         <v>220</v>
       </c>
       <c r="C214">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D214">
         <v>34</v>
       </c>
       <c r="E214">
-        <v>7446</v>
+        <v>7650</v>
       </c>
       <c r="F214">
         <v>1</v>
@@ -5412,13 +5415,13 @@
         <v>221</v>
       </c>
       <c r="C215">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D215">
         <v>19</v>
       </c>
       <c r="E215">
-        <v>3667</v>
+        <v>3781</v>
       </c>
       <c r="F215">
         <v>1</v>
@@ -5430,13 +5433,13 @@
         <v>222</v>
       </c>
       <c r="C216">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D216">
         <v>24.2</v>
       </c>
       <c r="E216">
-        <v>6384.75</v>
+        <v>6530.25</v>
       </c>
       <c r="F216">
         <v>4</v>
@@ -5448,13 +5451,13 @@
         <v>124</v>
       </c>
       <c r="C217">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D217">
         <v>19</v>
       </c>
       <c r="E217">
-        <v>6384</v>
+        <v>6498</v>
       </c>
       <c r="F217">
         <v>1</v>
@@ -5466,13 +5469,13 @@
         <v>223</v>
       </c>
       <c r="C218">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D218">
         <v>27.5</v>
       </c>
       <c r="E218">
-        <v>6585</v>
+        <v>6750</v>
       </c>
       <c r="F218">
         <v>2</v>
@@ -5484,13 +5487,13 @@
         <v>224</v>
       </c>
       <c r="C219">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D219">
         <v>18</v>
       </c>
       <c r="E219">
-        <v>3348</v>
+        <v>3456</v>
       </c>
       <c r="F219">
         <v>1</v>
@@ -5502,13 +5505,13 @@
         <v>225</v>
       </c>
       <c r="C220">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D220">
         <v>40</v>
       </c>
       <c r="E220">
-        <v>11800</v>
+        <v>12040</v>
       </c>
       <c r="F220">
         <v>3</v>
@@ -5520,13 +5523,13 @@
         <v>226</v>
       </c>
       <c r="C221">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D221">
         <v>23.5</v>
       </c>
       <c r="E221">
-        <v>6373</v>
+        <v>6514</v>
       </c>
       <c r="F221">
         <v>4</v>
@@ -5538,13 +5541,13 @@
         <v>227</v>
       </c>
       <c r="C222">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D222">
         <v>40</v>
       </c>
       <c r="E222">
-        <v>12440</v>
+        <v>12680</v>
       </c>
       <c r="F222">
         <v>1</v>
@@ -5556,13 +5559,13 @@
         <v>228</v>
       </c>
       <c r="C223">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D223">
         <v>36.3</v>
       </c>
       <c r="E223">
-        <v>11696</v>
+        <v>11914</v>
       </c>
       <c r="F223">
         <v>3</v>
@@ -5609,13 +5612,13 @@
         <v>114</v>
       </c>
       <c r="C2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="D2">
         <v>22.2</v>
       </c>
       <c r="E2">
-        <v>7230.933333333333</v>
+        <v>7364.019047619047</v>
       </c>
       <c r="F2">
         <v>105</v>
@@ -5627,13 +5630,13 @@
         <v>120</v>
       </c>
       <c r="C3">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D3">
         <v>22</v>
       </c>
       <c r="E3">
-        <v>5805.555555555556</v>
+        <v>5937.555555555556</v>
       </c>
       <c r="F3">
         <v>81</v>
@@ -5647,13 +5650,13 @@
         <v>153</v>
       </c>
       <c r="C4">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D4">
         <v>23.5</v>
       </c>
       <c r="E4">
-        <v>6674.298245614035</v>
+        <v>6815.350877192983</v>
       </c>
       <c r="F4">
         <v>57</v>
@@ -5665,13 +5668,13 @@
         <v>180</v>
       </c>
       <c r="C5">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D5">
         <v>21.1</v>
       </c>
       <c r="E5">
-        <v>5899.509090909091</v>
+        <v>6026.381818181818</v>
       </c>
       <c r="F5">
         <v>55</v>
@@ -5683,13 +5686,13 @@
         <v>178</v>
       </c>
       <c r="C6">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D6">
         <v>26.6</v>
       </c>
       <c r="E6">
-        <v>6913.086956521739</v>
+        <v>7072.869565217391</v>
       </c>
       <c r="F6">
         <v>46</v>
@@ -5703,13 +5706,13 @@
         <v>58</v>
       </c>
       <c r="C7">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D7">
         <v>12</v>
       </c>
       <c r="E7">
-        <v>3317.294117647059</v>
+        <v>3389.294117647059</v>
       </c>
       <c r="F7">
         <v>34</v>
@@ -5723,13 +5726,13 @@
         <v>131</v>
       </c>
       <c r="C8">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D8">
         <v>19.1</v>
       </c>
       <c r="E8">
-        <v>5289.411764705882</v>
+        <v>5404.294117647059</v>
       </c>
       <c r="F8">
         <v>34</v>
@@ -5741,13 +5744,13 @@
         <v>198</v>
       </c>
       <c r="C9">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D9">
         <v>18.3</v>
       </c>
       <c r="E9">
-        <v>5597.8125</v>
+        <v>5707.5</v>
       </c>
       <c r="F9">
         <v>32</v>
@@ -5761,13 +5764,13 @@
         <v>112</v>
       </c>
       <c r="C10">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D10">
         <v>28</v>
       </c>
       <c r="E10">
-        <v>8594</v>
+        <v>8762</v>
       </c>
       <c r="F10">
         <v>28</v>
@@ -5781,13 +5784,13 @@
         <v>123</v>
       </c>
       <c r="C11">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="D11">
         <v>19.8</v>
       </c>
       <c r="E11">
-        <v>5462.56</v>
+        <v>5581.12</v>
       </c>
       <c r="F11">
         <v>25</v>
@@ -5799,13 +5802,13 @@
         <v>183</v>
       </c>
       <c r="C12">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D12">
         <v>20.9</v>
       </c>
       <c r="E12">
-        <v>5996.95652173913</v>
+        <v>6122.173913043478</v>
       </c>
       <c r="F12">
         <v>23</v>
@@ -5817,13 +5820,13 @@
         <v>174</v>
       </c>
       <c r="C13">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D13">
         <v>20.3</v>
       </c>
       <c r="E13">
-        <v>5263.545454545455</v>
+        <v>5385.181818181818</v>
       </c>
       <c r="F13">
         <v>22</v>
@@ -5837,13 +5840,13 @@
         <v>216</v>
       </c>
       <c r="C14">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="D14">
         <v>32.3</v>
       </c>
       <c r="E14">
-        <v>9404.714285714286</v>
+        <v>9598.714285714286</v>
       </c>
       <c r="F14">
         <v>21</v>
@@ -5857,13 +5860,13 @@
         <v>37</v>
       </c>
       <c r="C15">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D15">
         <v>9.800000000000001</v>
       </c>
       <c r="E15">
-        <v>2431.277777777778</v>
+        <v>2490.277777777778</v>
       </c>
       <c r="F15">
         <v>18</v>
@@ -5877,13 +5880,13 @@
         <v>43</v>
       </c>
       <c r="C16">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D16">
         <v>25</v>
       </c>
       <c r="E16">
-        <v>7147.5</v>
+        <v>7297.5</v>
       </c>
       <c r="F16">
         <v>16</v>
@@ -5897,13 +5900,13 @@
         <v>97</v>
       </c>
       <c r="C17">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D17">
         <v>15</v>
       </c>
       <c r="E17">
-        <v>2592.1875</v>
+        <v>2682.1875</v>
       </c>
       <c r="F17">
         <v>16</v>
@@ -5917,13 +5920,13 @@
         <v>62</v>
       </c>
       <c r="C18">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="D18">
         <v>35.1</v>
       </c>
       <c r="E18">
-        <v>11361.75</v>
+        <v>11572.5</v>
       </c>
       <c r="F18">
         <v>16</v>
@@ -5937,13 +5940,13 @@
         <v>150</v>
       </c>
       <c r="C19">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D19">
         <v>18.3</v>
       </c>
       <c r="E19">
-        <v>5082.2</v>
+        <v>5192.2</v>
       </c>
       <c r="F19">
         <v>15</v>
@@ -5955,13 +5958,13 @@
         <v>202</v>
       </c>
       <c r="C20">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D20">
         <v>19.9</v>
       </c>
       <c r="E20">
-        <v>5432.4</v>
+        <v>5551.6</v>
       </c>
       <c r="F20">
         <v>15</v>
@@ -5975,13 +5978,13 @@
         <v>67</v>
       </c>
       <c r="C21">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D21">
         <v>13</v>
       </c>
       <c r="E21">
-        <v>3849.285714285714</v>
+        <v>3927.285714285714</v>
       </c>
       <c r="F21">
         <v>14</v>
@@ -6028,13 +6031,13 @@
         <v>34</v>
       </c>
       <c r="C2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="D2">
         <v>14</v>
       </c>
       <c r="E2">
-        <v>5124</v>
+        <v>5208</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -6048,13 +6051,13 @@
         <v>59</v>
       </c>
       <c r="C3">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D3">
         <v>12</v>
       </c>
       <c r="E3">
-        <v>4320</v>
+        <v>4392</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -6068,13 +6071,13 @@
         <v>107</v>
       </c>
       <c r="C4">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D4">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>7200</v>
+        <v>7320</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -6088,13 +6091,13 @@
         <v>149</v>
       </c>
       <c r="C5">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D5">
         <v>19</v>
       </c>
       <c r="E5">
-        <v>6840</v>
+        <v>6954</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -6108,13 +6111,13 @@
         <v>100</v>
       </c>
       <c r="C6">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D6">
         <v>16</v>
       </c>
       <c r="E6">
-        <v>5744</v>
+        <v>5840</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -6128,13 +6131,13 @@
         <v>95</v>
       </c>
       <c r="C7">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D7">
         <v>19</v>
       </c>
       <c r="E7">
-        <v>6773.5</v>
+        <v>6887.5</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -6148,13 +6151,13 @@
         <v>49</v>
       </c>
       <c r="C8">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="D8">
         <v>14</v>
       </c>
       <c r="E8">
-        <v>4970</v>
+        <v>5054</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -6168,13 +6171,13 @@
         <v>156</v>
       </c>
       <c r="C9">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="D9">
         <v>18</v>
       </c>
       <c r="E9">
-        <v>6390</v>
+        <v>6498</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -6186,13 +6189,13 @@
         <v>155</v>
       </c>
       <c r="C10">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="D10">
         <v>11</v>
       </c>
       <c r="E10">
-        <v>3883</v>
+        <v>3949</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -6206,13 +6209,13 @@
         <v>37</v>
       </c>
       <c r="C11">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="D11">
         <v>14</v>
       </c>
       <c r="E11">
-        <v>4872</v>
+        <v>4956</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -6226,13 +6229,13 @@
         <v>89</v>
       </c>
       <c r="C12">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="D12">
         <v>19</v>
       </c>
       <c r="E12">
-        <v>6612</v>
+        <v>6726</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -6246,13 +6249,13 @@
         <v>118</v>
       </c>
       <c r="C13">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="D13">
         <v>23</v>
       </c>
       <c r="E13">
-        <v>7981</v>
+        <v>8119</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -6266,13 +6269,13 @@
         <v>85</v>
       </c>
       <c r="C14">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="D14">
         <v>19</v>
       </c>
       <c r="E14">
-        <v>6574</v>
+        <v>6688</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -6286,13 +6289,13 @@
         <v>115</v>
       </c>
       <c r="C15">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="D15">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>7958</v>
+        <v>8096</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -6306,13 +6309,13 @@
         <v>166</v>
       </c>
       <c r="C16">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="D16">
         <v>15</v>
       </c>
       <c r="E16">
-        <v>5190</v>
+        <v>5280</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -6326,13 +6329,13 @@
         <v>82</v>
       </c>
       <c r="C17">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="D17">
         <v>19</v>
       </c>
       <c r="E17">
-        <v>6555</v>
+        <v>6669</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -6346,13 +6349,13 @@
         <v>43</v>
       </c>
       <c r="C18">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="D18">
         <v>23</v>
       </c>
       <c r="E18">
-        <v>7935</v>
+        <v>8073</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -6366,13 +6369,13 @@
         <v>74</v>
       </c>
       <c r="C19">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="D19">
         <v>19</v>
       </c>
       <c r="E19">
-        <v>6479</v>
+        <v>6593</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -6386,13 +6389,13 @@
         <v>206</v>
       </c>
       <c r="C20">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="D20">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>6820</v>
+        <v>6940</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -6406,13 +6409,13 @@
         <v>28</v>
       </c>
       <c r="C21">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="D21">
         <v>22</v>
       </c>
       <c r="E21">
-        <v>7458</v>
+        <v>7590</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -6459,13 +6462,13 @@
         <v>218</v>
       </c>
       <c r="C2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D2">
         <v>43.3</v>
       </c>
       <c r="E2">
-        <v>8233.333333333334</v>
+        <v>8493.333333333334</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -6479,13 +6482,13 @@
         <v>27</v>
       </c>
       <c r="C3">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D3">
         <v>40</v>
       </c>
       <c r="E3">
-        <v>11373.33333333333</v>
+        <v>11613.33333333333</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -6499,13 +6502,13 @@
         <v>31</v>
       </c>
       <c r="C4">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D4">
         <v>40</v>
       </c>
       <c r="E4">
-        <v>8760</v>
+        <v>9000</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -6519,13 +6522,13 @@
         <v>61</v>
       </c>
       <c r="C5">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="D5">
         <v>40</v>
       </c>
       <c r="E5">
-        <v>12760</v>
+        <v>13000</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -6539,13 +6542,13 @@
         <v>70</v>
       </c>
       <c r="C6">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="D6">
         <v>40</v>
       </c>
       <c r="E6">
-        <v>13360</v>
+        <v>13600</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -6557,13 +6560,13 @@
         <v>92</v>
       </c>
       <c r="C7">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D7">
         <v>40</v>
       </c>
       <c r="E7">
-        <v>12120</v>
+        <v>12360</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -6577,13 +6580,13 @@
         <v>157</v>
       </c>
       <c r="C8">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D8">
         <v>40</v>
       </c>
       <c r="E8">
-        <v>12240</v>
+        <v>12480</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -6595,13 +6598,13 @@
         <v>168</v>
       </c>
       <c r="C9">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D9">
         <v>40</v>
       </c>
       <c r="E9">
-        <v>11600</v>
+        <v>11840</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -6613,13 +6616,13 @@
         <v>187</v>
       </c>
       <c r="C10">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="D10">
         <v>40</v>
       </c>
       <c r="E10">
-        <v>12080</v>
+        <v>12320</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -6633,13 +6636,13 @@
         <v>211</v>
       </c>
       <c r="C11">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="D11">
         <v>40</v>
       </c>
       <c r="E11">
-        <v>13320</v>
+        <v>13560</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -6651,13 +6654,13 @@
         <v>212</v>
       </c>
       <c r="C12">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="D12">
         <v>40</v>
       </c>
       <c r="E12">
-        <v>12760</v>
+        <v>13000</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -6669,13 +6672,13 @@
         <v>213</v>
       </c>
       <c r="C13">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="D13">
         <v>40</v>
       </c>
       <c r="E13">
-        <v>13550</v>
+        <v>13790</v>
       </c>
       <c r="F13">
         <v>4</v>
@@ -6687,13 +6690,13 @@
         <v>76</v>
       </c>
       <c r="C14">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D14">
         <v>40</v>
       </c>
       <c r="E14">
-        <v>10200</v>
+        <v>10440</v>
       </c>
       <c r="F14">
         <v>4</v>
@@ -6705,13 +6708,13 @@
         <v>215</v>
       </c>
       <c r="C15">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D15">
         <v>40</v>
       </c>
       <c r="E15">
-        <v>10480</v>
+        <v>10720</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -6723,13 +6726,13 @@
         <v>225</v>
       </c>
       <c r="C16">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D16">
         <v>40</v>
       </c>
       <c r="E16">
-        <v>11800</v>
+        <v>12040</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -6741,13 +6744,13 @@
         <v>227</v>
       </c>
       <c r="C17">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D17">
         <v>40</v>
       </c>
       <c r="E17">
-        <v>12440</v>
+        <v>12680</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -6759,13 +6762,13 @@
         <v>228</v>
       </c>
       <c r="C18">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D18">
         <v>36.3</v>
       </c>
       <c r="E18">
-        <v>11696</v>
+        <v>11914</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -6777,13 +6780,13 @@
         <v>62</v>
       </c>
       <c r="C19">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="D19">
         <v>35.1</v>
       </c>
       <c r="E19">
-        <v>11361.75</v>
+        <v>11572.5</v>
       </c>
       <c r="F19">
         <v>16</v>
@@ -6795,13 +6798,13 @@
         <v>220</v>
       </c>
       <c r="C20">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D20">
         <v>34</v>
       </c>
       <c r="E20">
-        <v>7446</v>
+        <v>7650</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -6815,13 +6818,13 @@
         <v>192</v>
       </c>
       <c r="C21">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D21">
         <v>33.1</v>
       </c>
       <c r="E21">
-        <v>10090.57142857143</v>
+        <v>10289.42857142857</v>
       </c>
       <c r="F21">
         <v>7</v>
@@ -6868,13 +6871,13 @@
         <v>213</v>
       </c>
       <c r="C2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="D2">
         <v>40</v>
       </c>
       <c r="E2">
-        <v>13550</v>
+        <v>13790</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -6888,13 +6891,13 @@
         <v>70</v>
       </c>
       <c r="C3">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="D3">
         <v>40</v>
       </c>
       <c r="E3">
-        <v>13360</v>
+        <v>13600</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -6908,13 +6911,13 @@
         <v>211</v>
       </c>
       <c r="C4">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="D4">
         <v>40</v>
       </c>
       <c r="E4">
-        <v>13320</v>
+        <v>13560</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -6928,13 +6931,13 @@
         <v>61</v>
       </c>
       <c r="C5">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="D5">
         <v>40</v>
       </c>
       <c r="E5">
-        <v>12760</v>
+        <v>13000</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -6948,13 +6951,13 @@
         <v>212</v>
       </c>
       <c r="C6">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="D6">
         <v>40</v>
       </c>
       <c r="E6">
-        <v>12760</v>
+        <v>13000</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -6966,13 +6969,13 @@
         <v>227</v>
       </c>
       <c r="C7">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D7">
         <v>40</v>
       </c>
       <c r="E7">
-        <v>12440</v>
+        <v>12680</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -6986,13 +6989,13 @@
         <v>157</v>
       </c>
       <c r="C8">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D8">
         <v>40</v>
       </c>
       <c r="E8">
-        <v>12240</v>
+        <v>12480</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -7006,13 +7009,13 @@
         <v>92</v>
       </c>
       <c r="C9">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D9">
         <v>40</v>
       </c>
       <c r="E9">
-        <v>12120</v>
+        <v>12360</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -7026,13 +7029,13 @@
         <v>187</v>
       </c>
       <c r="C10">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="D10">
         <v>40</v>
       </c>
       <c r="E10">
-        <v>12080</v>
+        <v>12320</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -7046,13 +7049,13 @@
         <v>225</v>
       </c>
       <c r="C11">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D11">
         <v>40</v>
       </c>
       <c r="E11">
-        <v>11800</v>
+        <v>12040</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -7064,13 +7067,13 @@
         <v>228</v>
       </c>
       <c r="C12">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D12">
         <v>36.3</v>
       </c>
       <c r="E12">
-        <v>11696</v>
+        <v>11914</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -7084,13 +7087,13 @@
         <v>168</v>
       </c>
       <c r="C13">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D13">
         <v>40</v>
       </c>
       <c r="E13">
-        <v>11600</v>
+        <v>11840</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -7104,13 +7107,13 @@
         <v>27</v>
       </c>
       <c r="C14">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D14">
         <v>40</v>
       </c>
       <c r="E14">
-        <v>11373.33333333333</v>
+        <v>11613.33333333333</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -7124,13 +7127,13 @@
         <v>62</v>
       </c>
       <c r="C15">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="D15">
         <v>35.1</v>
       </c>
       <c r="E15">
-        <v>11361.75</v>
+        <v>11572.5</v>
       </c>
       <c r="F15">
         <v>16</v>
@@ -7142,13 +7145,13 @@
         <v>214</v>
       </c>
       <c r="C16">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="D16">
         <v>33</v>
       </c>
       <c r="E16">
-        <v>11187</v>
+        <v>11385</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -7160,13 +7163,13 @@
         <v>215</v>
       </c>
       <c r="C17">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D17">
         <v>40</v>
       </c>
       <c r="E17">
-        <v>10480</v>
+        <v>10720</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -7178,13 +7181,13 @@
         <v>76</v>
       </c>
       <c r="C18">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D18">
         <v>40</v>
       </c>
       <c r="E18">
-        <v>10200</v>
+        <v>10440</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -7198,13 +7201,13 @@
         <v>161</v>
       </c>
       <c r="C19">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="D19">
         <v>29.5</v>
       </c>
       <c r="E19">
-        <v>10125</v>
+        <v>10302</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -7216,13 +7219,13 @@
         <v>192</v>
       </c>
       <c r="C20">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D20">
         <v>33.1</v>
       </c>
       <c r="E20">
-        <v>10090.57142857143</v>
+        <v>10289.42857142857</v>
       </c>
       <c r="F20">
         <v>7</v>
@@ -7234,13 +7237,13 @@
         <v>135</v>
       </c>
       <c r="C21">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D21">
         <v>31</v>
       </c>
       <c r="E21">
-        <v>9672</v>
+        <v>9858</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -7299,7 +7302,7 @@
         <v>402</v>
       </c>
       <c r="F2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G2">
         <v>391</v>
@@ -7328,10 +7331,10 @@
         <v>272</v>
       </c>
       <c r="G3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -7354,7 +7357,7 @@
         <v>273</v>
       </c>
       <c r="G4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H4" t="s">
         <v>266</v>
@@ -7380,10 +7383,10 @@
         <v>274</v>
       </c>
       <c r="G5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -7406,10 +7409,10 @@
         <v>275</v>
       </c>
       <c r="G6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -7432,10 +7435,10 @@
         <v>276</v>
       </c>
       <c r="G7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -7458,10 +7461,10 @@
         <v>277</v>
       </c>
       <c r="G8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -7481,13 +7484,13 @@
         <v>271</v>
       </c>
       <c r="F9" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="G9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
